--- a/medicine/Psychotrope/Belgian_Family_Brewers/Belgian_Family_Brewers.xlsx
+++ b/medicine/Psychotrope/Belgian_Family_Brewers/Belgian_Family_Brewers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Belgian Family Brewers (BFB) est une association de brasseurs belges ayant pour but de protéger et de garantir la qualité des bières produites dans des brasseries familiales ayant plus de 50 ans d'existence. Son logo se retrouve sur les étiquettes de 150 bières belges.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette association sans but lucratif (ASBL) a été créée en 2007 par douze brasseries dont les membres d'une même famille sont aux commandes de l'entreprise depuis plus d'un demi-siècle. Depuis 2007, d'autres brasseries ont rejoint l'association. Parmi les 21 brasseries actuellement répertoriées, 16 se trouvent en région flamande et 5 en région wallonne (dont 4 en province du Hainaut). Ces 21 entreprises brassent 150 bières qui peuvent arborer sur leur étiquette le logo rouge jaune noir de la BFB. Ensemble, elles représentent environ 15 % du total de la production brassicole belge et cumulent 3 500 années d'expérience[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette association sans but lucratif (ASBL) a été créée en 2007 par douze brasseries dont les membres d'une même famille sont aux commandes de l'entreprise depuis plus d'un demi-siècle. Depuis 2007, d'autres brasseries ont rejoint l'association. Parmi les 21 brasseries actuellement répertoriées, 16 se trouvent en région flamande et 5 en région wallonne (dont 4 en province du Hainaut). Ces 21 entreprises brassent 150 bières qui peuvent arborer sur leur étiquette le logo rouge jaune noir de la BFB. Ensemble, elles représentent environ 15 % du total de la production brassicole belge et cumulent 3 500 années d'expérience.
 Trois brasseries ont quitté l'association en 2016 : la brasserie Bosteels, Palm Belgian Craft Brewers et la brasserie Van Honsebrouck.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Conditions d'admissibilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les trois conditions suivantes doivent être remplies pour qu'une bière soit labellisée BFB :
 il doit s'agir d'une bière belge authentique brassée dans une brasserie reconnue par la BFB;
@@ -577,7 +593,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste au 21 juillet 2020.
 </t>
@@ -608,7 +626,9 @@
           <t>Types de bière</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bière d'abbaye, (India Pale) Ale, Blonde/Double/Triple (fermentation haute), Bock, Bière brut, Faro, Bière fruitée, Vieille brune, Gueuze, Bière de saison, Bière Blanche et Spéciale. 
 Bien que brassées par plusieurs de ces brasseries, les bières de type pils n'entrent pas en ligne de compte. 
